--- a/IPL/Gujarat Titans/Wriddhiman Saha †.xlsx
+++ b/IPL/Gujarat Titans/Wriddhiman Saha †.xlsx
@@ -445,28 +445,31 @@
         <v>Wriddhiman Saha †</v>
       </c>
       <c r="C2" t="str">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="D2" t="str">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E2" t="str">
+        <v>10</v>
+      </c>
+      <c r="F2" t="str">
         <v>4</v>
       </c>
-      <c r="F2" t="str">
-        <v>1</v>
-      </c>
       <c r="G2" t="str">
-        <v>140.90</v>
+        <v>188.37</v>
       </c>
       <c r="H2" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I2" t="str">
-        <v>Wankhede</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J2" t="str">
-        <v>May 19 2022</v>
+        <v>May 07 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,28 +480,31 @@
         <v>Wriddhiman Saha †</v>
       </c>
       <c r="C3" t="str">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>45.45</v>
+        <v>0.00</v>
       </c>
       <c r="H3" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J3" t="str">
-        <v>May 10 2022</v>
+        <v>May 15 2023</v>
+      </c>
+      <c r="K3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -509,28 +515,31 @@
         <v>Wriddhiman Saha †</v>
       </c>
       <c r="C4" t="str">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D4" t="str">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="E4" t="str">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" t="str">
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <v>100.00</v>
+        <v>138.46</v>
       </c>
       <c r="H4" t="str">
-        <v>Kolkata Knight Riders</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I4" t="str">
-        <v>DY Patil</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J4" t="str">
-        <v>April 23 2022</v>
+        <v>May 28 - 29 2023</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -541,28 +550,31 @@
         <v>Wriddhiman Saha †</v>
       </c>
       <c r="C5" t="str">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" t="str">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="str">
         <v>3</v>
       </c>
       <c r="F5" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>123.52</v>
+        <v>112.50</v>
       </c>
       <c r="H5" t="str">
-        <v>Punjab Kings</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I5" t="str">
-        <v>DY Patil</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J5" t="str">
-        <v>May 03 2022</v>
+        <v>May 26 2023</v>
+      </c>
+      <c r="K5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -573,31 +585,31 @@
         <v>Wriddhiman Saha †</v>
       </c>
       <c r="C6" t="str">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="D6" t="str">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E6" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="str">
-        <v>140.90</v>
+        <v>133.33</v>
       </c>
       <c r="H6" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I6" t="str">
-        <v>Wankhede</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J6" t="str">
-        <v>May 19 2022</v>
+        <v>April 16 2023</v>
       </c>
       <c r="K6" t="str">
-        <v>RCB won by 8 wickets (with 8 balls remaining)</v>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -608,31 +620,31 @@
         <v>Wriddhiman Saha †</v>
       </c>
       <c r="C7" t="str">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D7" t="str">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E7" t="str">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="str">
-        <v>123.52</v>
+        <v>127.02</v>
       </c>
       <c r="H7" t="str">
-        <v>Punjab Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I7" t="str">
-        <v>DY Patil</v>
+        <v>Lucknow</v>
       </c>
       <c r="J7" t="str">
-        <v>May 03 2022</v>
+        <v>April 22 2023</v>
       </c>
       <c r="K7" t="str">
-        <v>Punjab Kings won by 8 wickets (with 24 balls remaining)</v>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -643,16 +655,16 @@
         <v>Wriddhiman Saha †</v>
       </c>
       <c r="C8" t="str">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D8" t="str">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E8" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="str">
         <v>100.00</v>
@@ -661,13 +673,13 @@
         <v>Kolkata Knight Riders</v>
       </c>
       <c r="I8" t="str">
-        <v>DY Patil</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J8" t="str">
-        <v>April 23 2022</v>
+        <v>April 09 2023</v>
       </c>
       <c r="K8" t="str">
-        <v>Titans won by 8 runs</v>
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -678,31 +690,31 @@
         <v>Wriddhiman Saha †</v>
       </c>
       <c r="C9" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="str">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E9" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="str">
         <v>0</v>
       </c>
       <c r="G9" t="str">
-        <v>45.45</v>
+        <v>57.14</v>
       </c>
       <c r="H9" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Mumbai Indians</v>
       </c>
       <c r="I9" t="str">
-        <v>Pune</v>
+        <v>Ahmedabad</v>
       </c>
       <c r="J9" t="str">
-        <v>May 10 2022</v>
+        <v>April 25 2023</v>
       </c>
       <c r="K9" t="str">
-        <v>Titans won by 62 runs</v>
+        <v/>
       </c>
     </row>
   </sheetData>
